--- a/commands.xlsx
+++ b/commands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86198\Documents\[Hello World]\python\[GitHub-Projects]\ATravelerRecognizeImage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6D77A6-714E-44BF-8F35-7E5687B6987E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCD3CF3-7767-482C-9F7C-35F2C0DF1CC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4186" yWindow="3026" windowWidth="17573" windowHeight="9141" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23650" windowHeight="12802" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>指令类型（1 单击  2 双击  3 右键  4 输入  5 等待  6滚轮  7移动 8截图</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>内容（图片名称.png、输入内容、等待时长/秒，截图范围）</t>
   </si>
@@ -47,6 +44,22 @@
   </si>
   <si>
     <t>额外图片（名称.png）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>search.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.baidu.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令类型（1 单击  2 双击  3 右键  4 输入  5 等待  6滚轮  7移动 8截图 9键盘按键</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -54,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +92,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -106,10 +127,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -122,9 +144,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -427,15 +452,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="59.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" style="5" bestFit="1" customWidth="1"/>
@@ -443,16 +468,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -460,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -470,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -480,7 +505,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -490,32 +515,61 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{1574FDD3-AF82-4347-8925-435B7404B280}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/commands.xlsx
+++ b/commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86198\Documents\[Hello World]\python\[GitHub-Projects]\ATravelerRecognizeImage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCD3CF3-7767-482C-9F7C-35F2C0DF1CC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9497E3-2C29-4828-BA7F-EB7478D1A61A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23650" windowHeight="12802" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>内容（图片名称.png、输入内容、等待时长/秒，截图范围）</t>
-  </si>
-  <si>
     <t>重复次数(-1代表一直重复)</t>
   </si>
   <si>
@@ -60,6 +57,10 @@
   </si>
   <si>
     <t>enter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数（图片名称.png、输入内容、等待时长/秒，截图范围）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +456,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.25"/>
@@ -468,16 +469,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -485,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -495,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -505,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -515,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -525,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -535,7 +536,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -543,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -559,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>

--- a/commands.xlsx
+++ b/commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86198\Documents\[Hello World]\python\[GitHub-Projects]\ATravelerRecognizeImage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9497E3-2C29-4828-BA7F-EB7478D1A61A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599454A6-FA8F-4942-A648-965F71A0895C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23650" windowHeight="12802" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>重复次数(-1代表一直重复)</t>
-  </si>
-  <si>
     <t>start.png</t>
   </si>
   <si>
@@ -56,11 +53,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>enter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>参数（图片名称.png、输入内容、等待时长/秒，截图范围）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复次数(-1代表只运行一次)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -456,29 +457,29 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="59.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -486,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -496,9 +497,11 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-1</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -506,7 +509,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -516,7 +519,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -526,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -536,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -546,6 +549,9 @@
       <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="C8" s="5">
+        <v>-1</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -560,7 +566,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>

--- a/commands.xlsx
+++ b/commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86198\Documents\[Hello World]\python\[GitHub-Projects]\ATravelerRecognizeImage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599454A6-FA8F-4942-A648-965F71A0895C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53340D19-FE6E-4308-88DE-5A58FA208558}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23650" windowHeight="12802" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>start.png</t>
   </si>
@@ -57,11 +57,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>F5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>重复次数(-1代表只运行一次)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F12</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +458,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.25"/>
@@ -476,7 +480,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -499,9 +503,7 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>-1</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -546,30 +548,38 @@
       <c r="A8" s="4">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5">
-        <v>-1</v>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B10" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="11" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/commands.xlsx
+++ b/commands.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86198\Documents\[Hello World]\python\[GitHub-Projects]\ATravelerRecognizeImage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_py\ATravelerRecognizeImage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53340D19-FE6E-4308-88DE-5A58FA208558}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F97D22A-3AE6-4C93-9050-AB0A1C9D6AAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23650" windowHeight="12802" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>start.png</t>
-  </si>
-  <si>
-    <t>menu.png</t>
-  </si>
-  <si>
-    <t>bilibili.png</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+  <si>
+    <t>www.baidu.com</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>指令类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数(图片名称.png、输入内容、等待时长/秒、截图范围)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复次数(-1代表只运行一次 0代表多次匹配不到可以跳过)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘按键</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选参数(图片名称.png、时间/秒）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>edge.png</t>
-  </si>
-  <si>
-    <t>0，0，500，350</t>
-  </si>
-  <si>
-    <t>额外图片（名称.png）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -45,27 +60,76 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>www.baidu.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令类型（1 单击  2 双击  3 右键  4 输入  5 等待  6滚轮  7移动 8截图 9键盘按键</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数（图片名称.png、输入内容、等待时长/秒，截图范围）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复次数(-1代表只运行一次)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>打开edge浏览器，只运行一次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击搜索栏，只运行一次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入百度网址，只运行一次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>control.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击控制台，准备输入代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>console.log("Hello world!");</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入js代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待</t>
+  </si>
+  <si>
+    <t>进入开发者模式，只运行一次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待5秒，然后循环输入js</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘按键</t>
   </si>
   <si>
     <t>enter</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>F12</t>
+    <t>输入回车，打印log</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域截图，并保存</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入回车</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200,500,500,800]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
+  </si>
+  <si>
+    <t>[200,500]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -73,7 +137,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,14 +150,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <family val="2"/>
     </font>
     <font>
@@ -101,12 +169,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,29 +214,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -458,135 +553,192 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="59.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" style="4" customWidth="1"/>
+    <col min="2" max="2" width="52.21875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="53.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>-1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>9</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{1574FDD3-AF82-4347-8925-435B7404B280}"/>
-  </hyperlinks>
+  <dataValidations xWindow="347" yWindow="379" count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入允许的操作类型" sqref="A1" xr:uid="{934709CC-F0EC-4D70-9171-10B81F4D4CFA}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" error="请输入允许的操作类型" prompt="数字代码：_x000a_0 鼠标拖拽     1 单击  _x000a_2 双击             3 右键  _x000a_4 输入             5 等待  _x000a_6滚轮              7移动_x000a_8截图              9键盘按键" sqref="A14:A1048576 A2:A12" xr:uid="{8551B7E3-C5FE-4375-A297-12C4BEE307EC}">
+      <formula1>"鼠标拖拽,单击,双击,右键,输入,等待,滚轮,移动,截图,键盘按键"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/commands.xlsx
+++ b/commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_py\ATravelerRecognizeImage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F97D22A-3AE6-4C93-9050-AB0A1C9D6AAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF23277-0C34-4DC0-9690-127320865ADE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>www.baidu.com</t>
   </si>
@@ -44,66 +44,58 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>可选参数(图片名称.png、时间/秒）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>edge.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>search.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开edge浏览器，只运行一次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击搜索栏，只运行一次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入百度网址，只运行一次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>control.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击控制台，准备输入代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>console.log("Hello world!");</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入js代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待</t>
+  </si>
+  <si>
+    <t>进入开发者模式，只运行一次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待5秒，然后循环输入js</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>键盘按键</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>可选参数(图片名称.png、时间/秒）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>edge.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>search.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开edge浏览器，只运行一次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击搜索栏，只运行一次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入百度网址，只运行一次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>control.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击控制台，准备输入代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>console.log("Hello world!");</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入js代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新页面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待</t>
-  </si>
-  <si>
-    <t>进入开发者模式，只运行一次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待5秒，然后循环输入js</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>键盘按键</t>
   </si>
   <si>
     <t>enter</t>
@@ -130,6 +122,10 @@
   </si>
   <si>
     <t>[200,500]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将鼠标移动到指定位置</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +552,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -579,7 +575,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -590,14 +586,14 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>-1</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -605,14 +601,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>-1</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -626,23 +622,23 @@
         <v>-1</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>6</v>
+      <c r="A6" s="8">
+        <v>9</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>1</v>
@@ -651,7 +647,7 @@
         <v>-1</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -659,12 +655,12 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -672,23 +668,23 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -696,30 +692,30 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="13">
         <v>5</v>
@@ -727,7 +723,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
